--- a/biology/Zoologie/Cicadellites/Cicadellites.xlsx
+++ b/biology/Zoologie/Cicadellites/Cicadellites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cicadellites est un genre fossile d'insectes hémiptères de la famille des Cicadellidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Cicadellites est créé par Heer en 1853[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cicadellites est créé par Heer en 1853.
 </t>
         </is>
       </c>
@@ -542,14 +556,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database[2], le genre Cicadellites contient aujourd'hui cinq espèces européennes[2] :
-Cicadellites bruckmanni Heer, 1853[1]
-Cicadellites nigriventris Heer, 1853[1]
-Cicadellites oblongus Heer, 1853[1]
-Cicadellites pallidus Heer, 1853[1]
-Cicadellites theobaldi Piton, 1935[3]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database, le genre Cicadellites contient aujourd'hui cinq espèces européennes :
+Cicadellites bruckmanni Heer, 1853
+Cicadellites nigriventris Heer, 1853
+Cicadellites oblongus Heer, 1853
+Cicadellites pallidus Heer, 1853
+Cicadellites theobaldi Piton, 1935</t>
         </is>
       </c>
     </row>
